--- a/doc/user-guide/cookbook/resource/resource-type.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-type.xlsx
@@ -5,35 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="946" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16493" windowHeight="7545" tabRatio="946" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="itemoperation" sheetId="20" r:id="rId1"/>
-    <sheet name="buffer" sheetId="1" r:id="rId2"/>
-    <sheet name="calendar bucket" sheetId="2" r:id="rId3"/>
-    <sheet name="calendar" sheetId="3" r:id="rId4"/>
-    <sheet name="customer" sheetId="4" r:id="rId5"/>
-    <sheet name="demand" sheetId="5" r:id="rId6"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId7"/>
-    <sheet name="item" sheetId="7" r:id="rId8"/>
-    <sheet name="operationresource" sheetId="8" r:id="rId9"/>
-    <sheet name="location" sheetId="9" r:id="rId10"/>
-    <sheet name="operation" sheetId="11" r:id="rId11"/>
-    <sheet name="resource" sheetId="13" r:id="rId12"/>
-    <sheet name="bucket date" sheetId="17" r:id="rId13"/>
-    <sheet name="bucket" sheetId="18" r:id="rId14"/>
-    <sheet name="parameter" sheetId="19" r:id="rId15"/>
+    <sheet name="buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="calendar bucket" sheetId="2" r:id="rId2"/>
+    <sheet name="calendar" sheetId="3" r:id="rId3"/>
+    <sheet name="customer" sheetId="4" r:id="rId4"/>
+    <sheet name="demand" sheetId="5" r:id="rId5"/>
+    <sheet name="operationmaterial" sheetId="6" r:id="rId6"/>
+    <sheet name="item" sheetId="7" r:id="rId7"/>
+    <sheet name="operationresource" sheetId="8" r:id="rId8"/>
+    <sheet name="location" sheetId="9" r:id="rId9"/>
+    <sheet name="operation" sheetId="11" r:id="rId10"/>
+    <sheet name="resource" sheetId="13" r:id="rId11"/>
+    <sheet name="bucket date" sheetId="17" r:id="rId12"/>
+    <sheet name="bucket" sheetId="18" r:id="rId13"/>
+    <sheet name="parameter" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14120" uniqueCount="6493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14112" uniqueCount="6493">
   <si>
     <t>name</t>
   </si>
@@ -19855,56 +19854,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>6482</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6473</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6491</v>
       </c>
-      <c r="C2" t="s">
-        <v>6479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>6483</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6473</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>6492</v>
       </c>
-      <c r="C3" t="s">
-        <v>6478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>6484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6473</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6477</v>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19914,45 +19940,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6473</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19961,7 +19952,7 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19969,34 +19960,37 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6476</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6473</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>8*3600</f>
         <v>28800</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6477</v>
       </c>
@@ -20004,17 +19998,20 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6473</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>8*3600*3</f>
         <v>86400</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6478</v>
       </c>
@@ -20022,16 +20019,19 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
+        <v>6492</v>
+      </c>
+      <c r="D4" t="s">
         <v>6473</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6479</v>
       </c>
@@ -20039,9 +20039,12 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
+        <v>6491</v>
+      </c>
+      <c r="D5" t="s">
         <v>6473</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>20</v>
       </c>
     </row>
@@ -20050,7 +20053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -20129,11 +20132,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -68925,7 +68928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -69009,7 +69012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -69075,92 +69078,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6482</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6473</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6491</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6483</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6473</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6492</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6484</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6473</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69354,7 +69271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -69404,7 +69321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -69432,7 +69349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -69567,7 +69484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -69686,7 +69603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -69731,7 +69648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -69793,4 +69710,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/user-guide/cookbook/resource/resource-type.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-type.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.2\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="946" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="946" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7132" uniqueCount="3561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="3565">
   <si>
     <t>name</t>
   </si>
@@ -10715,6 +10715,18 @@
   </si>
   <si>
     <t>minimum shipment</t>
+  </si>
+  <si>
+    <t>Resource D</t>
+  </si>
+  <si>
+    <t>buckets_month</t>
+  </si>
+  <si>
+    <t>Resource E</t>
+  </si>
+  <si>
+    <t>infinite</t>
   </si>
 </sst>
 </file>
@@ -11273,16 +11285,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11342,6 +11354,31 @@
         <v>1375</v>
       </c>
       <c r="E4" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E6" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -60457,7 +60494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -60761,10 +60798,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -60815,6 +60852,28 @@
         <v>1364</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>

--- a/doc/user-guide/cookbook/resource/resource-type.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA999F50-20A4-47C1-B805-D197C41A8FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="946" activeTab="11"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="946" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,19 @@
     <sheet name="resource" sheetId="13" r:id="rId11"/>
     <sheet name="parameter" sheetId="19" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -219,15 +227,6 @@
   </si>
   <si>
     <t>capacity resource C</t>
-  </si>
-  <si>
-    <t>after operation A @ factory</t>
-  </si>
-  <si>
-    <t>after operation B @ factory</t>
-  </si>
-  <si>
-    <t>after operation C @ factory</t>
   </si>
   <si>
     <t>16:59:59</t>
@@ -269,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,6 +395,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -431,6 +447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,83 +639,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -692,21 +710,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,10 +744,10 @@
         <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -747,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -768,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -776,7 +794,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -791,7 +809,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -799,7 +817,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -817,21 +835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -862,7 +880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -876,7 +894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -890,12 +908,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -904,12 +922,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -921,21 +939,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -957,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -968,7 +986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -985,20 +1003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1080,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1124,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1168,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1180,19 +1198,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1230,24 +1248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1258,21 +1276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,10 +1319,10 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1406,22 +1424,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1435,12 +1453,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1449,12 +1467,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1463,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1477,12 +1495,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1491,12 +1509,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -1505,7 +1523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1525,37 +1543,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1564,21 +1582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1622,23 +1640,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1650,20 +1668,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
